--- a/genomic_range/results/Precision_Table.xlsx
+++ b/genomic_range/results/Precision_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/iMac_Backup_3_12_2019/GSAChipSeqBenchmarkData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/benchmarks/genomic_range/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFEFCA3-3324-0940-9B97-B39B43DACACC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD59865-091F-654E-954C-7252349720AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="16140" windowHeight="28340" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="16140" windowHeight="26780" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Chipenrich_Colorectal_Cancer</t>
   </si>
@@ -412,6 +412,21 @@
   </si>
   <si>
     <t>Enrichr_Median_Precision</t>
+  </si>
+  <si>
+    <t>GREAT_Colorectal_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Alzheimers_Disease</t>
+  </si>
+  <si>
+    <t>GREAT_Gastric_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Prostate_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Median_Precision</t>
   </si>
 </sst>
 </file>
@@ -778,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC195-AB1D-C14E-9476-031E2CC25C6F}">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O91" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T107" sqref="T107"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,15 +816,20 @@
     <col min="13" max="13" width="25.83203125" customWidth="1"/>
     <col min="14" max="14" width="26.83203125" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" customWidth="1"/>
-    <col min="20" max="20" width="20.83203125" customWidth="1"/>
-    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="24.1640625" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
+    <col min="22" max="22" width="20.5" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,25 +876,40 @@
         <v>121</v>
       </c>
       <c r="P1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.39100679999999999</v>
       </c>
@@ -923,27 +958,31 @@
         <f>MEDIAN($K2,$L2,$M2,$N2)</f>
         <v>0</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>MEDIAN($P2,$Q2,$R2,$S2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>MEDIAN($Q2,$R2,$S2,$T2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z2" t="e">
+        <f>MEDIAN($V2,$W2,$X2,$Y2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.49751240000000002</v>
       </c>
@@ -992,27 +1031,31 @@
         <f t="shared" ref="O3:O66" si="2">MEDIAN($K3,$L3,$M3,$N3)</f>
         <v>0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="3">MEDIAN($P3,$Q3,$R3,$S3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U66" si="3">MEDIAN($Q3,$R3,$S3,$T3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z3" t="e">
+        <f t="shared" ref="Z3:Z66" si="4">MEDIAN($V3,$W3,$X3,$Y3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.42265429999999998</v>
       </c>
@@ -1061,11 +1104,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1098,27 +1145,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
         <v>8</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.42301179999999999</v>
       </c>
@@ -1167,11 +1218,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z6" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.7042254</v>
       </c>
@@ -1204,27 +1259,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>10</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z7" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1273,27 +1332,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z8" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1342,27 +1405,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1411,27 +1478,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1480,27 +1551,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z11" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.37878790000000001</v>
       </c>
@@ -1533,27 +1608,31 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z12" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.45696880000000001</v>
       </c>
@@ -1602,27 +1681,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" t="s">
-        <v>16</v>
+      <c r="P13" s="1">
+        <v>0.71428570000000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.71428570000000002</v>
+        <v>1.465201</v>
       </c>
       <c r="R13" s="1">
-        <v>1.465201</v>
+        <v>0.72463770000000005</v>
       </c>
       <c r="S13" s="1">
         <v>0.72463770000000005</v>
       </c>
-      <c r="T13" s="1">
-        <v>0.72463770000000005</v>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <f t="shared" si="3"/>
         <v>0.72463770000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.45696880000000001</v>
       </c>
@@ -1671,27 +1754,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" t="s">
-        <v>17</v>
+      <c r="P14" s="1">
+        <v>0.71428570000000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.71428570000000002</v>
+        <v>1.465201</v>
       </c>
       <c r="R14" s="1">
-        <v>1.465201</v>
+        <v>0.72463770000000005</v>
       </c>
       <c r="S14" s="1">
         <v>0.72463770000000005</v>
       </c>
-      <c r="T14" s="1">
-        <v>0.72463770000000005</v>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <f t="shared" si="3"/>
         <v>0.72463770000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.45696880000000001</v>
       </c>
@@ -1740,27 +1827,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" t="s">
-        <v>18</v>
+      <c r="P15" s="1">
+        <v>0.71428570000000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.71428570000000002</v>
+        <v>1.465201</v>
       </c>
       <c r="R15" s="1">
-        <v>1.465201</v>
+        <v>0.72463770000000005</v>
       </c>
       <c r="S15" s="1">
         <v>0.72463770000000005</v>
       </c>
-      <c r="T15" s="1">
-        <v>0.72463770000000005</v>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <f t="shared" si="3"/>
         <v>0.72463770000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.3289474</v>
       </c>
@@ -1809,27 +1900,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1">
+        <v>0.85470089999999999</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="1">
-        <v>0.85470089999999999</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z16" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.46317740000000002</v>
       </c>
@@ -1878,27 +1973,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z17" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.540906</v>
       </c>
@@ -1947,11 +2046,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="U18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z18" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.55865920000000002</v>
       </c>
@@ -2000,27 +2103,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.28409089999999998</v>
       </c>
@@ -2069,27 +2176,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z20" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.26281209999999999</v>
       </c>
@@ -2138,11 +2249,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="U21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z21" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.1644737</v>
       </c>
@@ -2191,27 +2306,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" t="s">
-        <v>25</v>
+      <c r="P22" s="1">
+        <v>0.66666669999999995</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.66666669999999995</v>
+        <v>0.69444439999999996</v>
       </c>
       <c r="R22" s="1">
-        <v>0.69444439999999996</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
         <v>0.68965520000000002</v>
       </c>
-      <c r="U22">
+      <c r="T22">
         <f t="shared" si="3"/>
         <v>0.67816094999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.45180720000000002</v>
       </c>
@@ -2260,24 +2379,28 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" s="1">
+        <v>0.52083330000000005</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="1">
-        <v>0.52083330000000005</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z23" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>9.5328880000000005E-2</v>
       </c>
@@ -2326,11 +2449,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" t="s">
+      <c r="U24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z24" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.13054830000000001</v>
       </c>
@@ -2379,11 +2506,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" t="s">
+      <c r="U25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z25" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.63124670000000005</v>
       </c>
@@ -2432,11 +2563,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" t="s">
+      <c r="U26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z26" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.57703400000000005</v>
       </c>
@@ -2485,27 +2620,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" t="s">
-        <v>30</v>
+      <c r="P27" s="1">
+        <v>0.74626870000000001</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.74626870000000001</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>0.78740160000000003</v>
       </c>
       <c r="S27" s="1">
-        <v>0.78740160000000003</v>
-      </c>
-      <c r="T27" s="1">
         <v>0.78125</v>
       </c>
-      <c r="U27">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>0.76375934999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.20661160000000001</v>
       </c>
@@ -2554,27 +2693,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
         <v>31</v>
       </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z28" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.3956479</v>
       </c>
@@ -2623,27 +2766,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="s">
         <v>32</v>
       </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z29" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.60362170000000004</v>
       </c>
@@ -2692,27 +2839,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z30" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.41562759999999999</v>
       </c>
@@ -2761,27 +2912,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" t="s">
-        <v>34</v>
+      <c r="P31" s="1">
+        <v>2.0833330000000001</v>
       </c>
       <c r="Q31" s="1">
-        <v>2.0833330000000001</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>0</v>
+        <v>2.5641029999999998</v>
       </c>
       <c r="S31" s="1">
-        <v>2.5641029999999998</v>
-      </c>
-      <c r="T31" s="1">
         <v>2.5</v>
       </c>
-      <c r="U31">
+      <c r="T31">
         <f t="shared" si="3"/>
         <v>2.2916664999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z31" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.48923680000000003</v>
       </c>
@@ -2830,27 +2985,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" t="s">
-        <v>35</v>
+      <c r="P32" s="1">
+        <v>1.6666669999999999</v>
       </c>
       <c r="Q32" s="1">
-        <v>1.6666669999999999</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>1.886792</v>
       </c>
       <c r="S32" s="1">
-        <v>1.886792</v>
-      </c>
-      <c r="T32" s="1">
         <v>1.8518520000000001</v>
       </c>
-      <c r="U32">
+      <c r="T32">
         <f t="shared" si="3"/>
         <v>1.7592595</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.127551</v>
       </c>
@@ -2899,27 +3058,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U33" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z33" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.40160639999999997</v>
       </c>
@@ -2968,27 +3131,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" t="s">
-        <v>37</v>
+      <c r="P34" s="1">
+        <v>2.919708</v>
       </c>
       <c r="Q34" s="1">
-        <v>2.919708</v>
+        <v>1.5151520000000001</v>
       </c>
       <c r="R34" s="1">
-        <v>1.5151520000000001</v>
+        <v>1.5037590000000001</v>
       </c>
       <c r="S34" s="1">
-        <v>1.5037590000000001</v>
-      </c>
-      <c r="T34" s="1">
         <v>2.2556389999999999</v>
       </c>
-      <c r="U34">
+      <c r="T34">
         <f t="shared" si="3"/>
         <v>1.8853955</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.47647410000000001</v>
       </c>
@@ -3037,27 +3204,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" t="s">
-        <v>38</v>
+      <c r="P35" s="1">
+        <v>1.2345680000000001</v>
       </c>
       <c r="Q35" s="1">
-        <v>1.2345680000000001</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
-        <v>0</v>
+        <v>1.388889</v>
       </c>
       <c r="S35" s="1">
-        <v>1.388889</v>
-      </c>
-      <c r="T35" s="1">
         <v>1.3698630000000001</v>
       </c>
-      <c r="U35">
+      <c r="T35">
         <f t="shared" si="3"/>
         <v>1.3022155</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.48701299999999997</v>
       </c>
@@ -3106,27 +3277,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U36" t="s">
         <v>39</v>
       </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z36" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.56657219999999997</v>
       </c>
@@ -3175,27 +3350,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U37" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z37" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.50111360000000005</v>
       </c>
@@ -3244,27 +3423,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
         <v>41</v>
       </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z38" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.52002079999999995</v>
       </c>
@@ -3313,27 +3496,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.60606059999999995</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0.60606059999999995</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z39" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.54282269999999999</v>
       </c>
@@ -3382,27 +3569,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
         <v>43</v>
       </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z40" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.54794520000000002</v>
       </c>
@@ -3451,27 +3642,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P41" t="s">
-        <v>44</v>
+      <c r="P41" s="1">
+        <v>1.3698630000000001</v>
       </c>
       <c r="Q41" s="1">
-        <v>1.3698630000000001</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>0.7042254</v>
       </c>
       <c r="S41" s="1">
-        <v>0.7042254</v>
-      </c>
-      <c r="T41" s="1">
         <v>0.6993007</v>
       </c>
-      <c r="U41">
+      <c r="T41">
         <f t="shared" si="3"/>
         <v>0.70176305000000005</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.20523350000000001</v>
       </c>
@@ -3520,27 +3715,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
         <v>45</v>
       </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z42" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0.52562419999999999</v>
       </c>
@@ -3589,27 +3788,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1">
+        <v>0.63694269999999997</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U43" t="s">
         <v>46</v>
       </c>
-      <c r="Q43" s="1">
-        <v>0.63694269999999997</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0</v>
-      </c>
-      <c r="T43" s="1">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z43" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0.45271630000000002</v>
       </c>
@@ -3658,27 +3861,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P44" t="s">
-        <v>47</v>
+      <c r="P44" s="1">
+        <v>0.5</v>
       </c>
       <c r="Q44" s="1">
-        <v>0.5</v>
+        <v>0.51813469999999995</v>
       </c>
       <c r="R44" s="1">
-        <v>0.51813469999999995</v>
+        <v>0.51546389999999997</v>
       </c>
       <c r="S44" s="1">
-        <v>0.51546389999999997</v>
-      </c>
-      <c r="T44" s="1">
         <v>0.51282050000000001</v>
       </c>
-      <c r="U44">
+      <c r="T44">
         <f t="shared" si="3"/>
         <v>0.51414219999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z44" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0.66926940000000001</v>
       </c>
@@ -3727,27 +3934,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P45" t="s">
-        <v>48</v>
+      <c r="P45" s="1">
+        <v>0.60606059999999995</v>
       </c>
       <c r="Q45" s="1">
-        <v>0.60606059999999995</v>
+        <v>2.5974029999999999</v>
       </c>
       <c r="R45" s="1">
-        <v>2.5974029999999999</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
       </c>
-      <c r="T45" s="1">
-        <v>0</v>
-      </c>
-      <c r="U45">
+      <c r="T45">
         <f t="shared" si="3"/>
         <v>0.30303029999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z45" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0.58651030000000004</v>
       </c>
@@ -3796,27 +4007,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P46" t="s">
-        <v>49</v>
+      <c r="P46" s="1">
+        <v>0.5347594</v>
       </c>
       <c r="Q46" s="1">
-        <v>0.5347594</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
-        <v>0</v>
+        <v>0.54644809999999999</v>
       </c>
       <c r="S46" s="1">
-        <v>0.54644809999999999</v>
-      </c>
-      <c r="T46" s="1">
         <v>0.54347829999999997</v>
       </c>
-      <c r="U46">
+      <c r="T46">
         <f t="shared" si="3"/>
         <v>0.53911884999999993</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z46" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0.61996280000000004</v>
       </c>
@@ -3865,27 +4080,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P47" t="s">
-        <v>50</v>
+      <c r="P47" s="1">
+        <v>0.7633588</v>
       </c>
       <c r="Q47" s="1">
-        <v>0.7633588</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S47" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T47" s="1">
         <v>0.79365079999999999</v>
       </c>
-      <c r="U47">
+      <c r="T47">
         <f t="shared" si="3"/>
         <v>0.7785048</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z47" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0.43124099999999999</v>
       </c>
@@ -3934,11 +4153,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P48" t="s">
+      <c r="U48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z48" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0.49658600000000003</v>
       </c>
@@ -3987,11 +4210,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P49" t="s">
+      <c r="U49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z49" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0.52840160000000003</v>
       </c>
@@ -4040,11 +4267,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P50" t="s">
+      <c r="U50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z50" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0.49751240000000002</v>
       </c>
@@ -4093,27 +4324,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P51" t="s">
-        <v>54</v>
+      <c r="P51" s="1">
+        <v>2.8169010000000001</v>
       </c>
       <c r="Q51" s="1">
-        <v>2.8169010000000001</v>
+        <v>0.72992699999999999</v>
       </c>
       <c r="R51" s="1">
-        <v>0.72992699999999999</v>
+        <v>1.459854</v>
       </c>
       <c r="S51" s="1">
-        <v>1.459854</v>
-      </c>
-      <c r="T51" s="1">
         <v>2.189781</v>
       </c>
-      <c r="U51">
+      <c r="T51">
         <f t="shared" si="3"/>
         <v>1.8248175</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z51" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0.49889139999999998</v>
       </c>
@@ -4162,27 +4397,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P52" t="s">
-        <v>55</v>
+      <c r="P52" s="1">
+        <v>1.492537</v>
       </c>
       <c r="Q52" s="1">
-        <v>1.492537</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>0.77519380000000004</v>
       </c>
       <c r="S52" s="1">
-        <v>0.77519380000000004</v>
-      </c>
-      <c r="T52" s="1">
         <v>0.76923079999999999</v>
       </c>
-      <c r="U52">
+      <c r="T52">
         <f t="shared" si="3"/>
         <v>0.77221230000000007</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z52" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0.36182720000000002</v>
       </c>
@@ -4231,27 +4470,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P53" t="s">
-        <v>56</v>
+      <c r="P53" s="1">
+        <v>1.3468009999999999</v>
       </c>
       <c r="Q53" s="1">
-        <v>1.3468009999999999</v>
+        <v>1.3698630000000001</v>
       </c>
       <c r="R53" s="1">
-        <v>1.3698630000000001</v>
+        <v>0.67796610000000002</v>
       </c>
       <c r="S53" s="1">
-        <v>0.67796610000000002</v>
-      </c>
-      <c r="T53" s="1">
         <v>1.0169490000000001</v>
       </c>
-      <c r="U53">
+      <c r="T53">
         <f t="shared" si="3"/>
         <v>1.181875</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z53" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0.60350029999999999</v>
       </c>
@@ -4300,27 +4543,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U54" t="s">
         <v>57</v>
       </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0</v>
-      </c>
-      <c r="T54" s="1">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z54" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0.47361300000000001</v>
       </c>
@@ -4369,27 +4616,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P55" t="s">
-        <v>58</v>
+      <c r="P55" s="1">
+        <v>0.71942450000000002</v>
       </c>
       <c r="Q55" s="1">
-        <v>0.71942450000000002</v>
+        <v>0.75187970000000004</v>
       </c>
       <c r="R55" s="1">
-        <v>0.75187970000000004</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1">
-        <v>0</v>
-      </c>
-      <c r="T55" s="1">
         <v>0.73529409999999995</v>
       </c>
-      <c r="U55">
+      <c r="T55">
         <f t="shared" si="3"/>
         <v>0.72735930000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z55" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0.52770450000000002</v>
       </c>
@@ -4438,27 +4689,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="1">
+        <v>1.0638300000000001</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
         <v>59</v>
       </c>
-      <c r="Q56" s="1">
-        <v>1.0638300000000001</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <v>0</v>
-      </c>
-      <c r="T56" s="1">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z56" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0.35242289999999998</v>
       </c>
@@ -4507,27 +4762,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P57" t="s">
-        <v>60</v>
+      <c r="P57" s="1">
+        <v>1.4150940000000001</v>
       </c>
       <c r="Q57" s="1">
-        <v>1.4150940000000001</v>
+        <v>0.48780489999999999</v>
       </c>
       <c r="R57" s="1">
-        <v>0.48780489999999999</v>
+        <v>0</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
       </c>
-      <c r="T57" s="1">
-        <v>0</v>
-      </c>
-      <c r="U57">
+      <c r="T57">
         <f t="shared" si="3"/>
         <v>0.24390244999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U57" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z57" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0.61050059999999995</v>
       </c>
@@ -4576,27 +4835,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P58" t="s">
-        <v>61</v>
+      <c r="P58" s="1">
+        <v>0.64516130000000005</v>
       </c>
       <c r="Q58" s="1">
-        <v>0.64516130000000005</v>
+        <v>0.68027210000000005</v>
       </c>
       <c r="R58" s="1">
-        <v>0.68027210000000005</v>
+        <v>0</v>
       </c>
       <c r="S58" s="1">
         <v>0</v>
       </c>
-      <c r="T58" s="1">
-        <v>0</v>
-      </c>
-      <c r="U58">
+      <c r="T58">
         <f t="shared" si="3"/>
         <v>0.32258065000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z58" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0.69356870000000004</v>
       </c>
@@ -4645,27 +4908,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P59" t="s">
-        <v>62</v>
+      <c r="P59" s="1">
+        <v>1.1904760000000001</v>
       </c>
       <c r="Q59" s="1">
-        <v>1.1904760000000001</v>
+        <v>0.625</v>
       </c>
       <c r="R59" s="1">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1">
-        <v>0</v>
-      </c>
-      <c r="T59" s="1">
         <v>0.60975610000000002</v>
       </c>
-      <c r="U59">
+      <c r="T59">
         <f t="shared" si="3"/>
         <v>0.61737805000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U59" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z59" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0.54288820000000004</v>
       </c>
@@ -4714,27 +4981,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P60" t="s">
-        <v>63</v>
+      <c r="P60" s="1">
+        <v>1.142857</v>
       </c>
       <c r="Q60" s="1">
-        <v>1.142857</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>0</v>
+        <v>0.58479530000000002</v>
       </c>
       <c r="S60" s="1">
-        <v>0.58479530000000002</v>
-      </c>
-      <c r="T60" s="1">
         <v>0.58139529999999995</v>
       </c>
-      <c r="U60">
+      <c r="T60">
         <f t="shared" si="3"/>
         <v>0.58309529999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U60" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z60" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0.48997770000000002</v>
       </c>
@@ -4783,27 +5054,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P61" t="s">
-        <v>64</v>
+      <c r="P61" s="1">
+        <v>2.0202019999999998</v>
       </c>
       <c r="Q61" s="1">
-        <v>2.0202019999999998</v>
+        <v>0.51546389999999997</v>
       </c>
       <c r="R61" s="1">
-        <v>0.51546389999999997</v>
+        <v>1.0309280000000001</v>
       </c>
       <c r="S61" s="1">
-        <v>1.0309280000000001</v>
-      </c>
-      <c r="T61" s="1">
         <v>1.546392</v>
       </c>
-      <c r="U61">
+      <c r="T61">
         <f t="shared" si="3"/>
         <v>1.2886600000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z61" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0.42038890000000001</v>
       </c>
@@ -4852,27 +5127,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P62" t="s">
-        <v>65</v>
+      <c r="P62" s="1">
+        <v>1.142857</v>
       </c>
       <c r="Q62" s="1">
-        <v>1.142857</v>
+        <v>1.807229</v>
       </c>
       <c r="R62" s="1">
-        <v>1.807229</v>
+        <v>0.59171600000000002</v>
       </c>
       <c r="S62" s="1">
-        <v>0.59171600000000002</v>
-      </c>
-      <c r="T62" s="1">
         <v>1.785714</v>
       </c>
-      <c r="U62">
+      <c r="T62">
         <f t="shared" si="3"/>
         <v>1.4642854999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z62" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0.5347594</v>
       </c>
@@ -4921,27 +5200,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P63" t="s">
-        <v>66</v>
+      <c r="P63" s="1">
+        <v>0.6493506</v>
       </c>
       <c r="Q63" s="1">
-        <v>0.6493506</v>
+        <v>0.68027210000000005</v>
       </c>
       <c r="R63" s="1">
-        <v>0.68027210000000005</v>
+        <v>0.67567569999999999</v>
       </c>
       <c r="S63" s="1">
-        <v>0.67567569999999999</v>
-      </c>
-      <c r="T63" s="1">
         <v>0.67114090000000004</v>
       </c>
-      <c r="U63">
+      <c r="T63">
         <f t="shared" si="3"/>
         <v>0.67340829999999996</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z63" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0.34687810000000002</v>
       </c>
@@ -4990,27 +5273,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P64" t="s">
-        <v>67</v>
+      <c r="P64" s="1">
+        <v>0.8</v>
       </c>
       <c r="Q64" s="1">
-        <v>0.8</v>
+        <v>1.6949149999999999</v>
       </c>
       <c r="R64" s="1">
-        <v>1.6949149999999999</v>
+        <v>0.83333330000000005</v>
       </c>
       <c r="S64" s="1">
-        <v>0.83333330000000005</v>
-      </c>
-      <c r="T64" s="1">
         <v>0.82644629999999997</v>
       </c>
-      <c r="U64">
+      <c r="T64">
         <f t="shared" si="3"/>
         <v>0.82988980000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z64" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0.30864200000000003</v>
       </c>
@@ -5059,27 +5346,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P65" t="s">
-        <v>68</v>
+      <c r="P65" s="1">
+        <v>0.58823530000000002</v>
       </c>
       <c r="Q65" s="1">
-        <v>0.58823530000000002</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>0</v>
+        <v>0.61349690000000001</v>
       </c>
       <c r="S65" s="1">
-        <v>0.61349690000000001</v>
-      </c>
-      <c r="T65" s="1">
         <v>0.60975610000000002</v>
       </c>
-      <c r="U65">
+      <c r="T65">
         <f t="shared" si="3"/>
         <v>0.59899570000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z65" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0.34636319999999998</v>
       </c>
@@ -5128,27 +5419,31 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P66" t="s">
-        <v>69</v>
+      <c r="P66" s="1">
+        <v>0.7042254</v>
       </c>
       <c r="Q66" s="1">
-        <v>0.7042254</v>
+        <v>0</v>
       </c>
       <c r="R66" s="1">
-        <v>0</v>
+        <v>0.73529409999999995</v>
       </c>
       <c r="S66" s="1">
-        <v>0.73529409999999995</v>
-      </c>
-      <c r="T66" s="1">
         <v>0.72992699999999999</v>
       </c>
-      <c r="U66">
+      <c r="T66">
         <f t="shared" si="3"/>
         <v>0.71707619999999994</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z66" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0.53050399999999998</v>
       </c>
@@ -5162,7 +5457,7 @@
         <v>0.31864049999999999</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E107" si="4">MEDIAN($A67,$B67,$C67,$D67)</f>
+        <f t="shared" ref="E67:E107" si="5">MEDIAN($A67,$B67,$C67,$D67)</f>
         <v>0.31880989999999998</v>
       </c>
       <c r="F67" s="1">
@@ -5178,7 +5473,7 @@
         <v>0.35038540000000001</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J107" si="5">MEDIAN($F67,$G67,$H67,$I67)</f>
+        <f t="shared" ref="J67:J107" si="6">MEDIAN($F67,$G67,$H67,$I67)</f>
         <v>0.28030834999999998</v>
       </c>
       <c r="K67" s="1">
@@ -5194,14 +5489,18 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O107" si="6">MEDIAN($K67,$L67,$M67,$N67)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
+        <f t="shared" ref="O67:O107" si="7">MEDIAN($K67,$L67,$M67,$N67)</f>
+        <v>0</v>
+      </c>
+      <c r="U67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z67" t="e">
+        <f t="shared" ref="Z67:Z107" si="8">MEDIAN($V67,$W67,$X67,$Y67)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0.47460839999999999</v>
       </c>
@@ -5215,7 +5514,7 @@
         <v>0.33269959999999998</v>
       </c>
       <c r="E68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28522760000000003</v>
       </c>
       <c r="F68" s="1">
@@ -5231,7 +5530,7 @@
         <v>0.3431709</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27383299999999999</v>
       </c>
       <c r="K68" s="1">
@@ -5247,30 +5546,34 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P68" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1.4492750000000001</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1.0050250000000001</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0.49751240000000002</v>
+      </c>
+      <c r="S68" s="1">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:T107" si="9">MEDIAN($P68,$Q68,$R68,$S68)</f>
+        <v>1.0025124999999999</v>
+      </c>
+      <c r="U68" t="s">
         <v>71</v>
       </c>
-      <c r="Q68" s="1">
-        <v>1.4492750000000001</v>
-      </c>
-      <c r="R68" s="1">
-        <v>1.0050250000000001</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0.49751240000000002</v>
-      </c>
-      <c r="T68" s="1">
-        <v>1</v>
-      </c>
-      <c r="U68">
-        <f t="shared" ref="U67:U107" si="7">MEDIAN($Q68,$R68,$S68,$T68)</f>
-        <v>1.0025124999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z68" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0.37373200000000001</v>
       </c>
@@ -5284,7 +5587,7 @@
         <v>0.32119910000000002</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32137125</v>
       </c>
       <c r="F69" s="1">
@@ -5300,7 +5603,7 @@
         <v>0.1825928</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18270409999999998</v>
       </c>
       <c r="K69" s="1">
@@ -5316,30 +5619,34 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P69" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0.81300810000000001</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0.84745760000000003</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>1.6806719999999999</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="9"/>
+        <v>0.83023285000000002</v>
+      </c>
+      <c r="U69" t="s">
         <v>72</v>
       </c>
-      <c r="Q69" s="1">
-        <v>0.81300810000000001</v>
-      </c>
-      <c r="R69" s="1">
-        <v>0.84745760000000003</v>
-      </c>
-      <c r="S69" s="1">
-        <v>0</v>
-      </c>
-      <c r="T69" s="1">
-        <v>1.6806719999999999</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="7"/>
-        <v>0.83023285000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z69" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0.5569307</v>
       </c>
@@ -5353,7 +5660,7 @@
         <v>0.24767800000000001</v>
       </c>
       <c r="E70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2479085</v>
       </c>
       <c r="F70" s="1">
@@ -5369,7 +5676,7 @@
         <v>0.24154590000000001</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21146219999999999</v>
       </c>
       <c r="K70" s="1">
@@ -5385,30 +5692,34 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P70" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0.74074070000000003</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0.79365079999999999</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="9"/>
+        <v>0.76099534999999996</v>
+      </c>
+      <c r="U70" t="s">
         <v>73</v>
       </c>
-      <c r="Q70" s="1">
-        <v>0.74074070000000003</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0.79365079999999999</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0</v>
-      </c>
-      <c r="T70" s="1">
-        <v>0.78125</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="7"/>
-        <v>0.76099534999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z70" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0.23909150000000001</v>
       </c>
@@ -5422,7 +5733,7 @@
         <v>0.239952</v>
       </c>
       <c r="E71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17956975</v>
       </c>
       <c r="F71" s="1">
@@ -5438,7 +5749,7 @@
         <v>0.25348540000000003</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22137994999999999</v>
       </c>
       <c r="K71" s="1">
@@ -5454,30 +5765,34 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P71" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <v>1.2048190000000001</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0.61349690000000001</v>
+      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="9"/>
+        <v>0.30674845000000001</v>
+      </c>
+      <c r="U71" t="s">
         <v>74</v>
       </c>
-      <c r="Q71" s="1">
-        <v>1.2048190000000001</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0.61349690000000001</v>
-      </c>
-      <c r="T71" s="1">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="7"/>
-        <v>0.30674845000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z71" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0.28037380000000001</v>
       </c>
@@ -5491,7 +5806,7 @@
         <v>0.1877934</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14093338999999999</v>
       </c>
       <c r="F72" s="1">
@@ -5507,7 +5822,7 @@
         <v>0.41753649999999998</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.207901</v>
       </c>
       <c r="K72" s="1">
@@ -5523,30 +5838,34 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P72" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U72" t="s">
         <v>75</v>
       </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="R72" s="1">
-        <v>0</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0</v>
-      </c>
-      <c r="T72" s="1">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z72" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0.41987400000000002</v>
       </c>
@@ -5560,7 +5879,7 @@
         <v>0.35112359999999998</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31610994999999997</v>
       </c>
       <c r="F73" s="1">
@@ -5576,7 +5895,7 @@
         <v>0.249501</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.19963815000000001</v>
       </c>
       <c r="K73" s="1">
@@ -5592,30 +5911,34 @@
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P73" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U73" t="s">
         <v>76</v>
       </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73" s="1">
-        <v>0</v>
-      </c>
-      <c r="S73" s="1">
-        <v>0</v>
-      </c>
-      <c r="T73" s="1">
-        <v>0</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z73" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0.7175473</v>
       </c>
@@ -5629,7 +5952,7 @@
         <v>0.3261579</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32637090000000002</v>
       </c>
       <c r="F74" s="1">
@@ -5645,7 +5968,7 @@
         <v>0.2436054</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18229765000000001</v>
       </c>
       <c r="K74" s="1">
@@ -5661,30 +5984,34 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P74" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U74" t="s">
         <v>77</v>
       </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
-      <c r="R74" s="1">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1">
-        <v>0</v>
-      </c>
-      <c r="T74" s="1">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z74" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0.39904230000000002</v>
       </c>
@@ -5698,7 +6025,7 @@
         <v>0.40096229999999999</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40000230000000003</v>
       </c>
       <c r="F75" s="1">
@@ -5714,7 +6041,7 @@
         <v>0.317965</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29153815</v>
       </c>
       <c r="K75" s="1">
@@ -5730,30 +6057,34 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P75" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>1.0101009999999999</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1.075269</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="9"/>
+        <v>0.50505049999999996</v>
+      </c>
+      <c r="U75" t="s">
         <v>78</v>
       </c>
-      <c r="Q75" s="1">
-        <v>1.0101009999999999</v>
-      </c>
-      <c r="R75" s="1">
-        <v>1.075269</v>
-      </c>
-      <c r="S75" s="1">
-        <v>0</v>
-      </c>
-      <c r="T75" s="1">
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="7"/>
-        <v>0.50505049999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z75" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0.43699929999999998</v>
       </c>
@@ -5767,7 +6098,7 @@
         <v>0.36549710000000002</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32905435000000005</v>
       </c>
       <c r="F76" s="1">
@@ -5783,7 +6114,7 @@
         <v>0.11862399999999999</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.11841365</v>
       </c>
       <c r="K76" s="1">
@@ -5799,30 +6130,34 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P76" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>1.020408</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U76" t="s">
         <v>79</v>
       </c>
-      <c r="Q76" s="1">
-        <v>1.020408</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0</v>
-      </c>
-      <c r="S76" s="1">
-        <v>0</v>
-      </c>
-      <c r="T76" s="1">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z76" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0.55594160000000004</v>
       </c>
@@ -5836,7 +6171,7 @@
         <v>0.27835769999999999</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31351635</v>
       </c>
       <c r="F77" s="1">
@@ -5852,7 +6187,7 @@
         <v>0.248139</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24826225000000002</v>
       </c>
       <c r="K77" s="1">
@@ -5868,30 +6203,34 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P77" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0.71428570000000002</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U77" t="s">
         <v>80</v>
       </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>0.71428570000000002</v>
-      </c>
-      <c r="S77" s="1">
-        <v>0</v>
-      </c>
-      <c r="T77" s="1">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z77" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0.49046319999999999</v>
       </c>
@@ -5905,7 +6244,7 @@
         <v>0.32751089999999999</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35511684999999998</v>
       </c>
       <c r="F78" s="1">
@@ -5921,7 +6260,7 @@
         <v>0.32804810000000001</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38224555000000005</v>
       </c>
       <c r="K78" s="1">
@@ -5937,30 +6276,34 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P78" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>1.052632</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U78" t="s">
         <v>81</v>
       </c>
-      <c r="Q78" s="1">
-        <v>1.052632</v>
-      </c>
-      <c r="R78" s="1">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1">
-        <v>0</v>
-      </c>
-      <c r="T78" s="1">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z78" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0.46419100000000002</v>
       </c>
@@ -5974,7 +6317,7 @@
         <v>0.4660453</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46511815000000001</v>
       </c>
       <c r="F79" s="1">
@@ -5990,7 +6333,7 @@
         <v>0.44422509999999998</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.37011450000000001</v>
       </c>
       <c r="K79" s="1">
@@ -6006,30 +6349,34 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P79" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="1">
+        <v>1.0416669999999999</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U79" t="s">
         <v>82</v>
       </c>
-      <c r="Q79" s="1">
-        <v>1.0416669999999999</v>
-      </c>
-      <c r="R79" s="1">
-        <v>0</v>
-      </c>
-      <c r="S79" s="1">
-        <v>0</v>
-      </c>
-      <c r="T79" s="1">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z79" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0.44286979999999998</v>
       </c>
@@ -6043,7 +6390,7 @@
         <v>0.44523600000000002</v>
       </c>
       <c r="E80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44405289999999997</v>
       </c>
       <c r="F80" s="1">
@@ -6059,7 +6406,7 @@
         <v>0.25138260000000001</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32730420000000005</v>
       </c>
       <c r="K80" s="1">
@@ -6075,30 +6422,34 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P80" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="1">
+        <v>1.0416669999999999</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U80" t="s">
         <v>83</v>
       </c>
-      <c r="Q80" s="1">
-        <v>1.0416669999999999</v>
-      </c>
-      <c r="R80" s="1">
-        <v>0</v>
-      </c>
-      <c r="S80" s="1">
-        <v>0</v>
-      </c>
-      <c r="T80" s="1">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z80" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0.55970149999999996</v>
       </c>
@@ -6112,7 +6463,7 @@
         <v>0.37453180000000003</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.46711665000000002</v>
       </c>
       <c r="F81" s="1">
@@ -6128,7 +6479,7 @@
         <v>0.1064396</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18670940000000003</v>
       </c>
       <c r="K81" s="1">
@@ -6144,30 +6495,34 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P81" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="1">
+        <v>1.6528929999999999</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U81" t="s">
         <v>84</v>
       </c>
-      <c r="Q81" s="1">
-        <v>1.6528929999999999</v>
-      </c>
-      <c r="R81" s="1">
-        <v>0</v>
-      </c>
-      <c r="S81" s="1">
-        <v>0</v>
-      </c>
-      <c r="T81" s="1">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z81" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0.60422960000000003</v>
       </c>
@@ -6181,7 +6536,7 @@
         <v>0.45454549999999999</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41695409999999999</v>
       </c>
       <c r="F82" s="1">
@@ -6197,7 +6552,7 @@
         <v>0.24024019999999999</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27054129999999998</v>
       </c>
       <c r="K82" s="1">
@@ -6213,30 +6568,34 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P82" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U82" t="s">
         <v>85</v>
       </c>
-      <c r="Q82" s="1">
-        <v>0</v>
-      </c>
-      <c r="R82" s="1">
-        <v>0</v>
-      </c>
-      <c r="S82" s="1">
-        <v>0</v>
-      </c>
-      <c r="T82" s="1">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z82" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0.36023050000000001</v>
       </c>
@@ -6250,7 +6609,7 @@
         <v>0.28922629999999999</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32472840000000003</v>
       </c>
       <c r="F83" s="1">
@@ -6266,7 +6625,7 @@
         <v>0.23364489999999999</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29246649999999996</v>
       </c>
       <c r="K83" s="1">
@@ -6282,30 +6641,34 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P83" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U83" t="s">
         <v>86</v>
       </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
-      <c r="R83" s="1">
-        <v>0</v>
-      </c>
-      <c r="S83" s="1">
-        <v>0</v>
-      </c>
-      <c r="T83" s="1">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z83" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0.41736230000000002</v>
       </c>
@@ -6319,7 +6682,7 @@
         <v>0.33528920000000001</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37632575000000001</v>
       </c>
       <c r="F84" s="1">
@@ -6335,7 +6698,7 @@
         <v>0.2115283</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23834745000000002</v>
       </c>
       <c r="K84" s="1">
@@ -6351,30 +6714,34 @@
         <v>0</v>
       </c>
       <c r="O84">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P84" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U84" t="s">
         <v>87</v>
       </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1">
-        <v>0</v>
-      </c>
-      <c r="T84" s="1">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z84" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0.37509379999999998</v>
       </c>
@@ -6388,7 +6755,7 @@
         <v>0.30120479999999999</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33814929999999999</v>
       </c>
       <c r="F85" s="1">
@@ -6404,7 +6771,7 @@
         <v>0.27056279999999999</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2164942</v>
       </c>
       <c r="K85" s="1">
@@ -6420,30 +6787,34 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P85" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U85" t="s">
         <v>88</v>
       </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
-      <c r="R85" s="1">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1">
-        <v>0</v>
-      </c>
-      <c r="T85" s="1">
-        <v>0</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z85" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0.2735978</v>
       </c>
@@ -6457,7 +6828,7 @@
         <v>0.34364260000000002</v>
       </c>
       <c r="E86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2743505</v>
       </c>
       <c r="F86" s="1">
@@ -6473,7 +6844,7 @@
         <v>0.1336898</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.100289715</v>
       </c>
       <c r="K86" s="1">
@@ -6489,30 +6860,34 @@
         <v>0</v>
       </c>
       <c r="O86">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P86" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="1">
+        <v>2.1276600000000001</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <v>1.0989009999999999</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="9"/>
+        <v>0.54945049999999995</v>
+      </c>
+      <c r="U86" t="s">
         <v>89</v>
       </c>
-      <c r="Q86" s="1">
-        <v>2.1276600000000001</v>
-      </c>
-      <c r="R86" s="1">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1">
-        <v>1.0989009999999999</v>
-      </c>
-      <c r="T86" s="1">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="7"/>
-        <v>0.54945049999999995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z86" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0.247117</v>
       </c>
@@ -6526,7 +6901,7 @@
         <v>0.33140019999999998</v>
       </c>
       <c r="E87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28925859999999998</v>
       </c>
       <c r="F87" s="1">
@@ -6542,7 +6917,7 @@
         <v>9.8911970000000002E-2</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14856403500000001</v>
       </c>
       <c r="K87" s="1">
@@ -6558,30 +6933,34 @@
         <v>0</v>
       </c>
       <c r="O87">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P87" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>1.176471</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U87" t="s">
         <v>90</v>
       </c>
-      <c r="Q87" s="1">
-        <v>0</v>
-      </c>
-      <c r="R87" s="1">
-        <v>1.176471</v>
-      </c>
-      <c r="S87" s="1">
-        <v>0</v>
-      </c>
-      <c r="T87" s="1">
-        <v>0</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z87" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0.34891840000000002</v>
       </c>
@@ -6595,7 +6974,7 @@
         <v>0.20993700000000001</v>
       </c>
       <c r="E88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2794277</v>
       </c>
       <c r="F88" s="1">
@@ -6611,7 +6990,7 @@
         <v>0.37807180000000001</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28278234999999996</v>
       </c>
       <c r="K88" s="1">
@@ -6627,30 +7006,34 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P88" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U88" t="s">
         <v>91</v>
       </c>
-      <c r="Q88" s="1">
-        <v>0</v>
-      </c>
-      <c r="R88" s="1">
-        <v>0</v>
-      </c>
-      <c r="S88" s="1">
-        <v>0</v>
-      </c>
-      <c r="T88" s="1">
-        <v>0</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z88" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0.29048659999999998</v>
       </c>
@@ -6664,7 +7047,7 @@
         <v>0.3649635</v>
       </c>
       <c r="E89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32772504999999996</v>
       </c>
       <c r="F89" s="1">
@@ -6680,7 +7063,7 @@
         <v>0.2872188</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.31139465</v>
       </c>
       <c r="K89" s="1">
@@ -6696,30 +7079,34 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P89" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U89" t="s">
         <v>92</v>
       </c>
-      <c r="Q89" s="1">
-        <v>0</v>
-      </c>
-      <c r="R89" s="1">
-        <v>0</v>
-      </c>
-      <c r="S89" s="1">
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z89" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0.35561880000000001</v>
       </c>
@@ -6733,7 +7120,7 @@
         <v>0.35714289999999999</v>
       </c>
       <c r="E90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35752634999999999</v>
       </c>
       <c r="F90" s="1">
@@ -6749,7 +7136,7 @@
         <v>0.25523230000000002</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30664429999999998</v>
       </c>
       <c r="K90" s="1">
@@ -6765,30 +7152,34 @@
         <v>0</v>
       </c>
       <c r="O90">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P90" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U90" t="s">
         <v>93</v>
       </c>
-      <c r="Q90" s="1">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1">
-        <v>0</v>
-      </c>
-      <c r="S90" s="1">
-        <v>0</v>
-      </c>
-      <c r="T90" s="1">
-        <v>0</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z90" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0.40453070000000002</v>
       </c>
@@ -6802,7 +7193,7 @@
         <v>0.32493909999999998</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32560040000000001</v>
       </c>
       <c r="F91" s="1">
@@ -6818,7 +7209,7 @@
         <v>0.32240730000000001</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29561225000000002</v>
       </c>
       <c r="K91" s="1">
@@ -6834,30 +7225,34 @@
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P91" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U91" t="s">
         <v>94</v>
       </c>
-      <c r="Q91" s="1">
-        <v>0</v>
-      </c>
-      <c r="R91" s="1">
-        <v>0</v>
-      </c>
-      <c r="S91" s="1">
-        <v>0</v>
-      </c>
-      <c r="T91" s="1">
-        <v>0</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z91" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0.47036689999999998</v>
       </c>
@@ -6871,7 +7266,7 @@
         <v>0.28328609999999999</v>
       </c>
       <c r="E92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33121650000000002</v>
       </c>
       <c r="F92" s="1">
@@ -6887,7 +7282,7 @@
         <v>0.36730950000000001</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32139580000000001</v>
       </c>
       <c r="K92" s="1">
@@ -6903,30 +7298,34 @@
         <v>0</v>
       </c>
       <c r="O92">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P92" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="1">
+        <v>1.9230769999999999</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>2.040816</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>0.99009899999999995</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="9"/>
+        <v>1.456588</v>
+      </c>
+      <c r="U92" t="s">
         <v>95</v>
       </c>
-      <c r="Q92" s="1">
-        <v>1.9230769999999999</v>
-      </c>
-      <c r="R92" s="1">
-        <v>2.040816</v>
-      </c>
-      <c r="S92" s="1">
-        <v>0</v>
-      </c>
-      <c r="T92" s="1">
-        <v>0.99009899999999995</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="7"/>
-        <v>1.456588</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z92" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0.47586679999999998</v>
       </c>
@@ -6940,7 +7339,7 @@
         <v>0.34083160000000001</v>
       </c>
       <c r="E93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37533384999999997</v>
       </c>
       <c r="F93" s="1">
@@ -6956,7 +7355,7 @@
         <v>0.34285710000000003</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25655709999999998</v>
       </c>
       <c r="K93" s="1">
@@ -6972,30 +7371,34 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P93" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U93" t="s">
         <v>96</v>
       </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93" s="1">
-        <v>0</v>
-      </c>
-      <c r="S93" s="1">
-        <v>0</v>
-      </c>
-      <c r="T93" s="1">
-        <v>0</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z93" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0.42164439999999997</v>
       </c>
@@ -7009,7 +7412,7 @@
         <v>0.28188869999999999</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.31779659999999998</v>
       </c>
       <c r="F94" s="1">
@@ -7025,7 +7428,7 @@
         <v>0.2685285</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29564135000000002</v>
       </c>
       <c r="K94" s="1">
@@ -7041,30 +7444,34 @@
         <v>0</v>
       </c>
       <c r="O94">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P94" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U94" t="s">
         <v>97</v>
       </c>
-      <c r="Q94" s="1">
-        <v>0</v>
-      </c>
-      <c r="R94" s="1">
-        <v>0</v>
-      </c>
-      <c r="S94" s="1">
-        <v>0</v>
-      </c>
-      <c r="T94" s="1">
-        <v>0</v>
-      </c>
-      <c r="U94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z94" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0.45214769999999999</v>
       </c>
@@ -7078,7 +7485,7 @@
         <v>0.37821480000000002</v>
       </c>
       <c r="E95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37850135000000001</v>
       </c>
       <c r="F95" s="1">
@@ -7094,7 +7501,7 @@
         <v>0.25693729999999998</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25706944999999998</v>
       </c>
       <c r="K95" s="1">
@@ -7110,30 +7517,34 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P95" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="1">
+        <v>1.0989009999999999</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>0</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
         <v>98</v>
       </c>
-      <c r="Q95" s="1">
-        <v>1.0989009999999999</v>
-      </c>
-      <c r="R95" s="1">
-        <v>0</v>
-      </c>
-      <c r="S95" s="1">
-        <v>0</v>
-      </c>
-      <c r="T95" s="1">
-        <v>0</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z95" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0.44742729999999997</v>
       </c>
@@ -7147,7 +7558,7 @@
         <v>0.44943820000000001</v>
       </c>
       <c r="E96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41111995000000001</v>
       </c>
       <c r="F96" s="1">
@@ -7163,7 +7574,7 @@
         <v>0.26001039999999997</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23406345000000001</v>
       </c>
       <c r="K96" s="1">
@@ -7179,30 +7590,34 @@
         <v>0</v>
       </c>
       <c r="O96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P96" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>4.1095889999999997</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U96" t="s">
         <v>99</v>
       </c>
-      <c r="Q96" s="1">
-        <v>0</v>
-      </c>
-      <c r="R96" s="1">
-        <v>4.1095889999999997</v>
-      </c>
-      <c r="S96" s="1">
-        <v>0</v>
-      </c>
-      <c r="T96" s="1">
-        <v>0</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z96" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0.39577839999999997</v>
       </c>
@@ -7216,7 +7631,7 @@
         <v>0.3309067</v>
       </c>
       <c r="E97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36334254999999999</v>
       </c>
       <c r="F97" s="1">
@@ -7232,7 +7647,7 @@
         <v>0.41371160000000001</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.32432859999999997</v>
       </c>
       <c r="K97" s="1">
@@ -7248,30 +7663,34 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P97" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U97" t="s">
         <v>100</v>
       </c>
-      <c r="Q97" s="1">
-        <v>0</v>
-      </c>
-      <c r="R97" s="1">
-        <v>0</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1">
-        <v>0</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z97" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0.55452869999999999</v>
       </c>
@@ -7285,7 +7704,7 @@
         <v>0.37037039999999999</v>
       </c>
       <c r="E98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3396015</v>
       </c>
       <c r="F98" s="1">
@@ -7301,7 +7720,7 @@
         <v>0.36194419999999999</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3621315</v>
       </c>
       <c r="K98" s="1">
@@ -7317,30 +7736,34 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P98" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
+        <v>1.3698630000000001</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>1.492537</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="9"/>
+        <v>0.68493150000000003</v>
+      </c>
+      <c r="U98" t="s">
         <v>101</v>
       </c>
-      <c r="Q98" s="1">
-        <v>1.3698630000000001</v>
-      </c>
-      <c r="R98" s="1">
-        <v>1.492537</v>
-      </c>
-      <c r="S98" s="1">
-        <v>0</v>
-      </c>
-      <c r="T98" s="1">
-        <v>0</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="7"/>
-        <v>0.68493150000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z98" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0.456621</v>
       </c>
@@ -7354,7 +7777,7 @@
         <v>0.381971</v>
       </c>
       <c r="E99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34389069999999999</v>
       </c>
       <c r="F99" s="1">
@@ -7370,7 +7793,7 @@
         <v>0.15831129999999999</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13195394999999999</v>
       </c>
       <c r="K99" s="1">
@@ -7386,30 +7809,34 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P99" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <v>1.0309280000000001</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1">
+        <v>0</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U99" t="s">
         <v>102</v>
       </c>
-      <c r="Q99" s="1">
-        <v>1.0309280000000001</v>
-      </c>
-      <c r="R99" s="1">
-        <v>0</v>
-      </c>
-      <c r="S99" s="1">
-        <v>0</v>
-      </c>
-      <c r="T99" s="1">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z99" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0.26881719999999998</v>
       </c>
@@ -7423,7 +7850,7 @@
         <v>0.18001800000000001</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22457994999999997</v>
       </c>
       <c r="F100" s="1">
@@ -7439,7 +7866,7 @@
         <v>0.2217295</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24967650000000002</v>
       </c>
       <c r="K100" s="1">
@@ -7455,30 +7882,34 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P100" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <v>1.7241379999999999</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0.9174312</v>
+      </c>
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
+      <c r="S100" s="1">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="9"/>
+        <v>0.4587156</v>
+      </c>
+      <c r="U100" t="s">
         <v>103</v>
       </c>
-      <c r="Q100" s="1">
-        <v>1.7241379999999999</v>
-      </c>
-      <c r="R100" s="1">
-        <v>0.9174312</v>
-      </c>
-      <c r="S100" s="1">
-        <v>0</v>
-      </c>
-      <c r="T100" s="1">
-        <v>0</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="7"/>
-        <v>0.4587156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z100" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0.3125</v>
       </c>
@@ -7492,7 +7923,7 @@
         <v>0.23529410000000001</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23575645000000001</v>
       </c>
       <c r="F101" s="1">
@@ -7508,7 +7939,7 @@
         <v>0.2631579</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23648334999999998</v>
       </c>
       <c r="K101" s="1">
@@ -7524,30 +7955,34 @@
         <v>0</v>
       </c>
       <c r="O101">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P101" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0.98039220000000005</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>1.0638300000000001</v>
+      </c>
+      <c r="R101" s="1">
+        <v>0</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="9"/>
+        <v>0.49019610000000002</v>
+      </c>
+      <c r="U101" t="s">
         <v>104</v>
       </c>
-      <c r="Q101" s="1">
-        <v>0.98039220000000005</v>
-      </c>
-      <c r="R101" s="1">
-        <v>1.0638300000000001</v>
-      </c>
-      <c r="S101" s="1">
-        <v>0</v>
-      </c>
-      <c r="T101" s="1">
-        <v>0</v>
-      </c>
-      <c r="U101">
-        <f t="shared" si="7"/>
-        <v>0.49019610000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z101" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0.37678980000000001</v>
       </c>
@@ -7561,7 +7996,7 @@
         <v>0.3025719</v>
       </c>
       <c r="E102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33968085000000003</v>
       </c>
       <c r="F102" s="1">
@@ -7577,7 +8012,7 @@
         <v>0.27085589999999998</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27100279999999999</v>
       </c>
       <c r="K102" s="1">
@@ -7593,30 +8028,34 @@
         <v>0</v>
       </c>
       <c r="O102">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P102" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0.93457939999999995</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>1</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="9"/>
+        <v>0.46728969999999997</v>
+      </c>
+      <c r="U102" t="s">
         <v>105</v>
       </c>
-      <c r="Q102" s="1">
-        <v>0.93457939999999995</v>
-      </c>
-      <c r="R102" s="1">
-        <v>1</v>
-      </c>
-      <c r="S102" s="1">
-        <v>0</v>
-      </c>
-      <c r="T102" s="1">
-        <v>0</v>
-      </c>
-      <c r="U102">
-        <f t="shared" si="7"/>
-        <v>0.46728969999999997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z102" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0.43591980000000002</v>
       </c>
@@ -7630,7 +8069,7 @@
         <v>0.43821209999999999</v>
       </c>
       <c r="E103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39339849999999998</v>
       </c>
       <c r="F103" s="1">
@@ -7646,7 +8085,7 @@
         <v>0.28296549999999998</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25425425000000001</v>
       </c>
       <c r="K103" s="1">
@@ -7662,30 +8101,34 @@
         <v>0</v>
       </c>
       <c r="O103">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P103" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0</v>
+      </c>
+      <c r="R103" s="1">
+        <v>0</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U103" t="s">
         <v>106</v>
       </c>
-      <c r="Q103" s="1">
-        <v>0</v>
-      </c>
-      <c r="R103" s="1">
-        <v>0</v>
-      </c>
-      <c r="S103" s="1">
-        <v>0</v>
-      </c>
-      <c r="T103" s="1">
-        <v>0</v>
-      </c>
-      <c r="U103">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z103" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0.54844610000000005</v>
       </c>
@@ -7699,7 +8142,7 @@
         <v>0.36697249999999998</v>
       </c>
       <c r="E104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41347705000000001</v>
       </c>
       <c r="F104" s="1">
@@ -7715,7 +8158,7 @@
         <v>0.30487799999999998</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34342450000000002</v>
       </c>
       <c r="K104" s="1">
@@ -7731,30 +8174,34 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P104" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104" s="1">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U104" t="s">
         <v>107</v>
       </c>
-      <c r="Q104" s="1">
-        <v>0</v>
-      </c>
-      <c r="R104" s="1">
-        <v>0</v>
-      </c>
-      <c r="S104" s="1">
-        <v>0</v>
-      </c>
-      <c r="T104" s="1">
-        <v>0</v>
-      </c>
-      <c r="U104">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z104" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0.24752479999999999</v>
       </c>
@@ -7768,7 +8215,7 @@
         <v>8.2781460000000001E-2</v>
       </c>
       <c r="E105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12437827999999999</v>
       </c>
       <c r="F105" s="1">
@@ -7784,7 +8231,7 @@
         <v>8.7489059999999993E-2</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26354319999999998</v>
       </c>
       <c r="K105" s="1">
@@ -7800,30 +8247,34 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P105" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
+      </c>
+      <c r="R105" s="1">
+        <v>0</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U105" t="s">
         <v>108</v>
       </c>
-      <c r="Q105" s="1">
-        <v>0</v>
-      </c>
-      <c r="R105" s="1">
-        <v>0</v>
-      </c>
-      <c r="S105" s="1">
-        <v>0</v>
-      </c>
-      <c r="T105" s="1">
-        <v>0</v>
-      </c>
-      <c r="U105">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z105" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0.3947368</v>
       </c>
@@ -7837,7 +8288,7 @@
         <v>0.26490069999999999</v>
       </c>
       <c r="E106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.32981874999999999</v>
       </c>
       <c r="F106" s="1">
@@ -7853,7 +8304,7 @@
         <v>0.25488529999999998</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29664740000000001</v>
       </c>
       <c r="K106" s="1">
@@ -7869,30 +8320,34 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P106" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U106" t="s">
         <v>109</v>
       </c>
-      <c r="Q106" s="1">
-        <v>0</v>
-      </c>
-      <c r="R106" s="1">
-        <v>0</v>
-      </c>
-      <c r="S106" s="1">
-        <v>0</v>
-      </c>
-      <c r="T106" s="1">
-        <v>0</v>
-      </c>
-      <c r="U106">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z106" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0.41095890000000002</v>
       </c>
@@ -7906,7 +8361,7 @@
         <v>0.2758621</v>
       </c>
       <c r="E107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34341050000000001</v>
       </c>
       <c r="F107" s="1">
@@ -7922,7 +8377,7 @@
         <v>0.26525199999999999</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30993094999999998</v>
       </c>
       <c r="K107" s="1">
@@ -7938,27 +8393,31 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P107" t="s">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>4</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U107" t="s">
         <v>110</v>
       </c>
-      <c r="Q107" s="1">
-        <v>0</v>
-      </c>
-      <c r="R107" s="1">
-        <v>4</v>
-      </c>
-      <c r="S107" s="1">
-        <v>0</v>
-      </c>
-      <c r="T107" s="1">
-        <v>0</v>
-      </c>
-      <c r="U107">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="Z107" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/genomic_range/results/Precision_Table.xlsx
+++ b/genomic_range/results/Precision_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/benchmarks/genomic_range/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajni\Desktop\benchmarks\genomic_range\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD59865-091F-654E-954C-7252349720AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E174B51-2020-4505-9BC6-07D022340177}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="16140" windowHeight="26780" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Chipenrich_Colorectal_Cancer</t>
   </si>
@@ -43,327 +43,6 @@
   </si>
   <si>
     <t>Chipenrich_Prostate_Cancer</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>GSM1847178</t>
-  </si>
-  <si>
-    <t>GSE84618</t>
-  </si>
-  <si>
-    <t>GSM2283764</t>
-  </si>
-  <si>
-    <t>GSM2283765</t>
-  </si>
-  <si>
-    <t>GSM2283766</t>
-  </si>
-  <si>
-    <t>GSM2283767</t>
-  </si>
-  <si>
-    <t>GSM2283768</t>
-  </si>
-  <si>
-    <t>GSM2283769</t>
-  </si>
-  <si>
-    <t>GSM2283770</t>
-  </si>
-  <si>
-    <t>GSM2283771</t>
-  </si>
-  <si>
-    <t>GSM2283772</t>
-  </si>
-  <si>
-    <t>GSM2283773</t>
-  </si>
-  <si>
-    <t>GSM2283774</t>
-  </si>
-  <si>
-    <t>GSM2283775</t>
-  </si>
-  <si>
-    <t>GSM2101436</t>
-  </si>
-  <si>
-    <t>GSM2101437</t>
-  </si>
-  <si>
-    <t>GSM2752893</t>
-  </si>
-  <si>
-    <t>GSM2101438</t>
-  </si>
-  <si>
-    <t>GSM2101439</t>
-  </si>
-  <si>
-    <t>GSM2752894</t>
-  </si>
-  <si>
-    <t>GSM2752897</t>
-  </si>
-  <si>
-    <t>GSM2752898</t>
-  </si>
-  <si>
-    <t>GSM2752899</t>
-  </si>
-  <si>
-    <t>GSM2752900</t>
-  </si>
-  <si>
-    <t>GSM2752901</t>
-  </si>
-  <si>
-    <t>GSM2752895</t>
-  </si>
-  <si>
-    <t>GSM2298950</t>
-  </si>
-  <si>
-    <t>GSM2058015</t>
-  </si>
-  <si>
-    <t>GSM2058016</t>
-  </si>
-  <si>
-    <t>GSM2058017</t>
-  </si>
-  <si>
-    <t>GSM2058018</t>
-  </si>
-  <si>
-    <t>GSM2058019</t>
-  </si>
-  <si>
-    <t>GSM2058020</t>
-  </si>
-  <si>
-    <t>GSM2058021</t>
-  </si>
-  <si>
-    <t>GSM2058022</t>
-  </si>
-  <si>
-    <t>GSM2058023</t>
-  </si>
-  <si>
-    <t>GSM2058024</t>
-  </si>
-  <si>
-    <t>GSM2058025</t>
-  </si>
-  <si>
-    <t>GSM2058026</t>
-  </si>
-  <si>
-    <t>GSM2058027</t>
-  </si>
-  <si>
-    <t>GSM2058028</t>
-  </si>
-  <si>
-    <t>GSM2058029</t>
-  </si>
-  <si>
-    <t>GSM2058030</t>
-  </si>
-  <si>
-    <t>GSM2058031</t>
-  </si>
-  <si>
-    <t>GSM2058032</t>
-  </si>
-  <si>
-    <t>GSM2058033</t>
-  </si>
-  <si>
-    <t>GSM2058034</t>
-  </si>
-  <si>
-    <t>GSM2058035</t>
-  </si>
-  <si>
-    <t>GSM2058036</t>
-  </si>
-  <si>
-    <t>GSM2058037</t>
-  </si>
-  <si>
-    <t>GSM2058038</t>
-  </si>
-  <si>
-    <t>GSM2058039</t>
-  </si>
-  <si>
-    <t>GSM2058040</t>
-  </si>
-  <si>
-    <t>GSM2058041</t>
-  </si>
-  <si>
-    <t>GSM2058042</t>
-  </si>
-  <si>
-    <t>GSM2058043</t>
-  </si>
-  <si>
-    <t>GSM2058044</t>
-  </si>
-  <si>
-    <t>GSM2058045</t>
-  </si>
-  <si>
-    <t>GSM2058046</t>
-  </si>
-  <si>
-    <t>GSM2058047</t>
-  </si>
-  <si>
-    <t>GSM2058048</t>
-  </si>
-  <si>
-    <t>GSM2058049</t>
-  </si>
-  <si>
-    <t>GSM2058050</t>
-  </si>
-  <si>
-    <t>GSM2058051</t>
-  </si>
-  <si>
-    <t>GSM2058052</t>
-  </si>
-  <si>
-    <t>GSM2058053</t>
-  </si>
-  <si>
-    <t>GSM2058054</t>
-  </si>
-  <si>
-    <t>GSM2058055</t>
-  </si>
-  <si>
-    <t>GSM2058056</t>
-  </si>
-  <si>
-    <t>GSM2058057</t>
-  </si>
-  <si>
-    <t>GSM2058058</t>
-  </si>
-  <si>
-    <t>GSM2058059</t>
-  </si>
-  <si>
-    <t>GSM2058060</t>
-  </si>
-  <si>
-    <t>GSM2058061</t>
-  </si>
-  <si>
-    <t>GSM2058062</t>
-  </si>
-  <si>
-    <t>GSM2058063</t>
-  </si>
-  <si>
-    <t>GSM2058064</t>
-  </si>
-  <si>
-    <t>GSM2058065</t>
-  </si>
-  <si>
-    <t>GSM2058066</t>
-  </si>
-  <si>
-    <t>GSM2058067</t>
-  </si>
-  <si>
-    <t>GSM2058068</t>
-  </si>
-  <si>
-    <t>GSM2058069</t>
-  </si>
-  <si>
-    <t>GSM2058070</t>
-  </si>
-  <si>
-    <t>GSM2058071</t>
-  </si>
-  <si>
-    <t>GSM2058072</t>
-  </si>
-  <si>
-    <t>GSM2058073</t>
-  </si>
-  <si>
-    <t>GSM2058074</t>
-  </si>
-  <si>
-    <t>GSM2058075</t>
-  </si>
-  <si>
-    <t>GSM2058076</t>
-  </si>
-  <si>
-    <t>GSM2058077</t>
-  </si>
-  <si>
-    <t>GSM2058078</t>
-  </si>
-  <si>
-    <t>GSM2058079</t>
-  </si>
-  <si>
-    <t>GSM2058080</t>
-  </si>
-  <si>
-    <t>GSM2058081</t>
-  </si>
-  <si>
-    <t>GSM2058082</t>
-  </si>
-  <si>
-    <t>GSM2058083</t>
-  </si>
-  <si>
-    <t>GSM2058084</t>
-  </si>
-  <si>
-    <t>GSM2058085</t>
-  </si>
-  <si>
-    <t>GSM2058086</t>
-  </si>
-  <si>
-    <t>GSM2058087</t>
-  </si>
-  <si>
-    <t>GSM2058088</t>
-  </si>
-  <si>
-    <t>GSM2058089</t>
-  </si>
-  <si>
-    <t>GSM2058090</t>
-  </si>
-  <si>
-    <t>GSM2058091</t>
-  </si>
-  <si>
-    <t>GSM2058092</t>
-  </si>
-  <si>
-    <t>GSM2058093</t>
   </si>
   <si>
     <t>Chipenrich_Median_Precision</t>
@@ -433,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,10 +154,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,43 +475,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC195-AB1D-C14E-9476-031E2CC25C6F}">
-  <dimension ref="A1:Z107"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z107"/>
+    <sheetView tabSelected="1" topLeftCell="S91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U105" sqref="U105:X105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.625" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="26.83203125" customWidth="1"/>
+    <col min="12" max="12" width="30.875" customWidth="1"/>
+    <col min="13" max="13" width="25.875" customWidth="1"/>
+    <col min="14" max="14" width="26.875" customWidth="1"/>
     <col min="15" max="15" width="27.5" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" customWidth="1"/>
-    <col min="17" max="17" width="24.1640625" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="22.125" customWidth="1"/>
+    <col min="17" max="17" width="24.125" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="20.875" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="20.5" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="22" width="18.375" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="17.625" customWidth="1"/>
+    <col min="25" max="25" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -843,73 +524,70 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" t="s">
-        <v>129</v>
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0.39100679999999999</v>
       </c>
@@ -974,15 +652,24 @@
         <f>MEDIAN($P2,$Q2,$R2,$S2)</f>
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="e">
-        <f>MEDIAN($V2,$W2,$X2,$Y2)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>MEDIAN($U2,$V2,$W2,$X2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>0.49751240000000002</v>
       </c>
@@ -1047,15 +734,24 @@
         <f t="shared" ref="T3:T66" si="3">MEDIAN($P3,$Q3,$R3,$S3)</f>
         <v>0</v>
       </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="e">
-        <f t="shared" ref="Z3:Z66" si="4">MEDIAN($V3,$W3,$X3,$Y3)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U3">
+        <v>3.7037040000000001</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="4">MEDIAN($U3,$V3,$W3,$X3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>0.42265429999999998</v>
       </c>
@@ -1104,72 +800,78 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" t="e">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" t="e">
-        <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>0.42301179999999999</v>
       </c>
@@ -1218,15 +920,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="e">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>0.7042254</v>
       </c>
@@ -1275,15 +986,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="e">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1348,15 +1068,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="e">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1421,15 +1150,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="e">
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1494,15 +1232,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="e">
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>0.31347960000000002</v>
       </c>
@@ -1567,15 +1314,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" t="e">
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>0.37878790000000001</v>
       </c>
@@ -1624,15 +1380,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="e">
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>0.45696880000000001</v>
       </c>
@@ -1697,15 +1462,24 @@
         <f t="shared" si="3"/>
         <v>0.72463770000000005</v>
       </c>
-      <c r="U13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="e">
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>0.45696880000000001</v>
       </c>
@@ -1770,15 +1544,16 @@
         <f t="shared" si="3"/>
         <v>0.72463770000000005</v>
       </c>
-      <c r="U14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14" t="e">
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>0.45696880000000001</v>
       </c>
@@ -1843,15 +1618,24 @@
         <f t="shared" si="3"/>
         <v>0.72463770000000005</v>
       </c>
-      <c r="U15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" t="e">
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>0.3289474</v>
       </c>
@@ -1916,15 +1700,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="e">
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>0.46317740000000002</v>
       </c>
@@ -1989,15 +1774,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z17" t="e">
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>0.540906</v>
       </c>
@@ -2046,15 +1840,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="e">
+      <c r="Y18" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>0.55865920000000002</v>
       </c>
@@ -2119,15 +1910,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z19" t="e">
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>0.28409089999999998</v>
       </c>
@@ -2192,15 +1992,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z20" t="e">
+      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>0.26281209999999999</v>
       </c>
@@ -2249,15 +2058,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z21" t="e">
+      <c r="U21" s="5">
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>0.1644737</v>
       </c>
@@ -2322,15 +2140,24 @@
         <f t="shared" si="3"/>
         <v>0.67816094999999998</v>
       </c>
-      <c r="U22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z22" t="e">
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>0.45180720000000002</v>
       </c>
@@ -2392,15 +2219,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z23" t="e">
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>9.5328880000000005E-2</v>
       </c>
@@ -2449,15 +2285,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z24" t="e">
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>0.13054830000000001</v>
       </c>
@@ -2506,15 +2351,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" t="e">
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>0.63124670000000005</v>
       </c>
@@ -2563,15 +2417,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" t="e">
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>0.57703400000000005</v>
       </c>
@@ -2636,15 +2499,24 @@
         <f t="shared" si="3"/>
         <v>0.76375934999999995</v>
       </c>
-      <c r="U27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z27" t="e">
+      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>0.20661160000000001</v>
       </c>
@@ -2709,15 +2581,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" t="e">
+      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>0.3956479</v>
       </c>
@@ -2782,15 +2663,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z29" t="e">
+      <c r="Y29" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>0.60362170000000004</v>
       </c>
@@ -2855,15 +2733,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z30" t="e">
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>0.41562759999999999</v>
       </c>
@@ -2928,15 +2815,12 @@
         <f t="shared" si="3"/>
         <v>2.2916664999999998</v>
       </c>
-      <c r="U31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z31" t="e">
+      <c r="Y31" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>0.48923680000000003</v>
       </c>
@@ -3001,15 +2885,12 @@
         <f t="shared" si="3"/>
         <v>1.7592595</v>
       </c>
-      <c r="U32" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z32" t="e">
+      <c r="Y32" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>0.127551</v>
       </c>
@@ -3074,15 +2955,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z33" t="e">
+      <c r="Y33" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>0.40160639999999997</v>
       </c>
@@ -3147,15 +3025,12 @@
         <f t="shared" si="3"/>
         <v>1.8853955</v>
       </c>
-      <c r="U34" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="e">
+      <c r="Y34" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>0.47647410000000001</v>
       </c>
@@ -3220,15 +3095,24 @@
         <f t="shared" si="3"/>
         <v>1.3022155</v>
       </c>
-      <c r="U35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z35" t="e">
+      <c r="U35" s="5">
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>0.48701299999999997</v>
       </c>
@@ -3293,15 +3177,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z36" t="e">
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>0.56657219999999997</v>
       </c>
@@ -3366,15 +3259,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U37" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z37" t="e">
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>0.50111360000000005</v>
       </c>
@@ -3439,15 +3341,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="e">
+      <c r="U38" s="5">
+        <v>0</v>
+      </c>
+      <c r="V38" s="5">
+        <v>0</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>0.52002079999999995</v>
       </c>
@@ -3512,15 +3423,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z39" t="e">
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>0.54282269999999999</v>
       </c>
@@ -3585,15 +3505,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U40" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z40" t="e">
+      <c r="U40" s="5">
+        <v>0</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>0.54794520000000002</v>
       </c>
@@ -3658,15 +3587,24 @@
         <f t="shared" si="3"/>
         <v>0.70176305000000005</v>
       </c>
-      <c r="U41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" t="e">
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>0.20523350000000001</v>
       </c>
@@ -3731,15 +3669,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z42" t="e">
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+      <c r="V42" s="5">
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y42">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>0.52562419999999999</v>
       </c>
@@ -3804,15 +3751,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U43" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z43" t="e">
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y43">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>0.45271630000000002</v>
       </c>
@@ -3877,15 +3833,24 @@
         <f t="shared" si="3"/>
         <v>0.51414219999999999</v>
       </c>
-      <c r="U44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z44" t="e">
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y44">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>0.66926940000000001</v>
       </c>
@@ -3950,15 +3915,24 @@
         <f t="shared" si="3"/>
         <v>0.30303029999999997</v>
       </c>
-      <c r="U45" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z45" t="e">
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>0.58651030000000004</v>
       </c>
@@ -4023,15 +3997,12 @@
         <f t="shared" si="3"/>
         <v>0.53911884999999993</v>
       </c>
-      <c r="U46" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z46" t="e">
+      <c r="Y46" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>0.61996280000000004</v>
       </c>
@@ -4096,15 +4067,24 @@
         <f t="shared" si="3"/>
         <v>0.7785048</v>
       </c>
-      <c r="U47" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z47" t="e">
+      <c r="U47" s="5">
+        <v>0</v>
+      </c>
+      <c r="V47" s="5">
+        <v>0</v>
+      </c>
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+      <c r="X47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y47">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>0.43124099999999999</v>
       </c>
@@ -4153,15 +4133,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z48" t="e">
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+      <c r="X48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y48">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>0.49658600000000003</v>
       </c>
@@ -4210,15 +4199,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U49" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z49" t="e">
+      <c r="U49" s="5">
+        <v>0</v>
+      </c>
+      <c r="V49" s="5">
+        <v>0</v>
+      </c>
+      <c r="W49" s="5">
+        <v>0</v>
+      </c>
+      <c r="X49" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y49">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>0.52840160000000003</v>
       </c>
@@ -4267,15 +4265,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z50" t="e">
+      <c r="U50" s="5">
+        <v>0</v>
+      </c>
+      <c r="V50" s="5">
+        <v>0</v>
+      </c>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+      <c r="X50" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y50">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>0.49751240000000002</v>
       </c>
@@ -4340,15 +4347,24 @@
         <f t="shared" si="3"/>
         <v>1.8248175</v>
       </c>
-      <c r="U51" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z51" t="e">
+      <c r="U51" s="5">
+        <v>0</v>
+      </c>
+      <c r="V51" s="5">
+        <v>0</v>
+      </c>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+      <c r="X51" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y51">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>0.49889139999999998</v>
       </c>
@@ -4413,15 +4429,24 @@
         <f t="shared" si="3"/>
         <v>0.77221230000000007</v>
       </c>
-      <c r="U52" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z52" t="e">
+      <c r="U52" s="5">
+        <v>0</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52" s="5">
+        <v>0</v>
+      </c>
+      <c r="X52" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y52">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1">
         <v>0.36182720000000002</v>
       </c>
@@ -4486,15 +4511,24 @@
         <f t="shared" si="3"/>
         <v>1.181875</v>
       </c>
-      <c r="U53" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z53" t="e">
+      <c r="U53" s="5">
+        <v>0</v>
+      </c>
+      <c r="V53" s="5">
+        <v>0</v>
+      </c>
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+      <c r="X53" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y53">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1">
         <v>0.60350029999999999</v>
       </c>
@@ -4559,15 +4593,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U54" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z54" t="e">
+      <c r="U54" s="5">
+        <v>0</v>
+      </c>
+      <c r="V54" s="5">
+        <v>0</v>
+      </c>
+      <c r="W54" s="5">
+        <v>0</v>
+      </c>
+      <c r="X54" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y54">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>0.47361300000000001</v>
       </c>
@@ -4632,15 +4675,24 @@
         <f t="shared" si="3"/>
         <v>0.72735930000000004</v>
       </c>
-      <c r="U55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" t="e">
+      <c r="U55" s="5">
+        <v>0</v>
+      </c>
+      <c r="V55" s="5">
+        <v>0</v>
+      </c>
+      <c r="W55" s="5">
+        <v>0</v>
+      </c>
+      <c r="X55" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y55">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1">
         <v>0.52770450000000002</v>
       </c>
@@ -4705,15 +4757,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U56" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z56" t="e">
+      <c r="U56" s="5">
+        <v>0</v>
+      </c>
+      <c r="V56" s="5">
+        <v>0</v>
+      </c>
+      <c r="W56" s="5">
+        <v>0</v>
+      </c>
+      <c r="X56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y56">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1">
         <v>0.35242289999999998</v>
       </c>
@@ -4778,15 +4839,24 @@
         <f t="shared" si="3"/>
         <v>0.24390244999999999</v>
       </c>
-      <c r="U57" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z57" t="e">
+      <c r="U57" s="5">
+        <v>0</v>
+      </c>
+      <c r="V57" s="5">
+        <v>0</v>
+      </c>
+      <c r="W57" s="5">
+        <v>0</v>
+      </c>
+      <c r="X57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y57">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1">
         <v>0.61050059999999995</v>
       </c>
@@ -4851,15 +4921,24 @@
         <f t="shared" si="3"/>
         <v>0.32258065000000002</v>
       </c>
-      <c r="U58" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z58" t="e">
+      <c r="U58" s="5">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5">
+        <v>0</v>
+      </c>
+      <c r="W58" s="5">
+        <v>0</v>
+      </c>
+      <c r="X58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y58">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1">
         <v>0.69356870000000004</v>
       </c>
@@ -4924,15 +5003,24 @@
         <f t="shared" si="3"/>
         <v>0.61737805000000001</v>
       </c>
-      <c r="U59" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z59" t="e">
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
+      <c r="V59" s="5">
+        <v>0</v>
+      </c>
+      <c r="W59" s="5">
+        <v>0</v>
+      </c>
+      <c r="X59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y59">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>0.54288820000000004</v>
       </c>
@@ -4997,15 +5085,24 @@
         <f t="shared" si="3"/>
         <v>0.58309529999999998</v>
       </c>
-      <c r="U60" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z60" t="e">
+      <c r="U60" s="5">
+        <v>0</v>
+      </c>
+      <c r="V60" s="5">
+        <v>0</v>
+      </c>
+      <c r="W60" s="5">
+        <v>0</v>
+      </c>
+      <c r="X60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y60">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>0.48997770000000002</v>
       </c>
@@ -5070,15 +5167,24 @@
         <f t="shared" si="3"/>
         <v>1.2886600000000001</v>
       </c>
-      <c r="U61" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z61" t="e">
+      <c r="U61" s="5">
+        <v>0</v>
+      </c>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61" s="5">
+        <v>0</v>
+      </c>
+      <c r="X61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y61">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>0.42038890000000001</v>
       </c>
@@ -5143,15 +5249,24 @@
         <f t="shared" si="3"/>
         <v>1.4642854999999999</v>
       </c>
-      <c r="U62" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z62" t="e">
+      <c r="U62" s="5">
+        <v>0</v>
+      </c>
+      <c r="V62" s="5">
+        <v>0</v>
+      </c>
+      <c r="W62" s="5">
+        <v>0</v>
+      </c>
+      <c r="X62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y62">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>0.5347594</v>
       </c>
@@ -5216,15 +5331,24 @@
         <f t="shared" si="3"/>
         <v>0.67340829999999996</v>
       </c>
-      <c r="U63" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z63" t="e">
+      <c r="U63" s="5">
+        <v>0</v>
+      </c>
+      <c r="V63" s="5">
+        <v>0</v>
+      </c>
+      <c r="W63" s="5">
+        <v>0</v>
+      </c>
+      <c r="X63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y63">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>0.34687810000000002</v>
       </c>
@@ -5289,15 +5413,24 @@
         <f t="shared" si="3"/>
         <v>0.82988980000000001</v>
       </c>
-      <c r="U64" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z64" t="e">
+      <c r="U64" s="5">
+        <v>0</v>
+      </c>
+      <c r="V64" s="5">
+        <v>0</v>
+      </c>
+      <c r="W64" s="5">
+        <v>0</v>
+      </c>
+      <c r="X64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y64">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>0.30864200000000003</v>
       </c>
@@ -5362,15 +5495,24 @@
         <f t="shared" si="3"/>
         <v>0.59899570000000002</v>
       </c>
-      <c r="U65" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z65" t="e">
+      <c r="U65" s="5">
+        <v>0</v>
+      </c>
+      <c r="V65" s="5">
+        <v>0</v>
+      </c>
+      <c r="W65" s="5">
+        <v>0</v>
+      </c>
+      <c r="X65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y65">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1">
         <v>0.34636319999999998</v>
       </c>
@@ -5435,15 +5577,24 @@
         <f t="shared" si="3"/>
         <v>0.71707619999999994</v>
       </c>
-      <c r="U66" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z66" t="e">
+      <c r="U66" s="5">
+        <v>0</v>
+      </c>
+      <c r="V66" s="5">
+        <v>0</v>
+      </c>
+      <c r="W66" s="5">
+        <v>0</v>
+      </c>
+      <c r="X66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y66">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>0.53050399999999998</v>
       </c>
@@ -5492,15 +5643,24 @@
         <f t="shared" ref="O67:O107" si="7">MEDIAN($K67,$L67,$M67,$N67)</f>
         <v>0</v>
       </c>
-      <c r="U67" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z67" t="e">
-        <f t="shared" ref="Z67:Z107" si="8">MEDIAN($V67,$W67,$X67,$Y67)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U67" s="5">
+        <v>0</v>
+      </c>
+      <c r="V67" s="5">
+        <v>0</v>
+      </c>
+      <c r="W67" s="5">
+        <v>0</v>
+      </c>
+      <c r="X67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y107" si="8">MEDIAN($U67,$V67,$W67,$X67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>0.47460839999999999</v>
       </c>
@@ -5565,15 +5725,24 @@
         <f t="shared" ref="T68:T107" si="9">MEDIAN($P68,$Q68,$R68,$S68)</f>
         <v>1.0025124999999999</v>
       </c>
-      <c r="U68" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z68" t="e">
+      <c r="U68" s="5">
+        <v>0</v>
+      </c>
+      <c r="V68" s="5">
+        <v>0</v>
+      </c>
+      <c r="W68" s="5">
+        <v>0</v>
+      </c>
+      <c r="X68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y68">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>0.37373200000000001</v>
       </c>
@@ -5638,15 +5807,24 @@
         <f t="shared" si="9"/>
         <v>0.83023285000000002</v>
       </c>
-      <c r="U69" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z69" t="e">
+      <c r="U69" s="5">
+        <v>0</v>
+      </c>
+      <c r="V69" s="5">
+        <v>0</v>
+      </c>
+      <c r="W69" s="5">
+        <v>0</v>
+      </c>
+      <c r="X69" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y69">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>0.5569307</v>
       </c>
@@ -5711,15 +5889,12 @@
         <f t="shared" si="9"/>
         <v>0.76099534999999996</v>
       </c>
-      <c r="U70" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z70" t="e">
+      <c r="Y70" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>0.23909150000000001</v>
       </c>
@@ -5784,15 +5959,24 @@
         <f t="shared" si="9"/>
         <v>0.30674845000000001</v>
       </c>
-      <c r="U71" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z71" t="e">
+      <c r="U71" s="5">
+        <v>0</v>
+      </c>
+      <c r="V71" s="5">
+        <v>0</v>
+      </c>
+      <c r="W71" s="5">
+        <v>0</v>
+      </c>
+      <c r="X71" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y71">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>0.28037380000000001</v>
       </c>
@@ -5857,15 +6041,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U72" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z72" t="e">
+      <c r="U72" s="5">
+        <v>0</v>
+      </c>
+      <c r="V72" s="5">
+        <v>0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y72">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>0.41987400000000002</v>
       </c>
@@ -5930,15 +6123,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U73" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="e">
+      <c r="Y73" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>0.7175473</v>
       </c>
@@ -6003,15 +6193,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U74" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="e">
+      <c r="U74" s="5">
+        <v>0</v>
+      </c>
+      <c r="V74" s="5">
+        <v>0</v>
+      </c>
+      <c r="W74" s="5">
+        <v>0</v>
+      </c>
+      <c r="X74" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y74">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>0.39904230000000002</v>
       </c>
@@ -6076,15 +6275,12 @@
         <f t="shared" si="9"/>
         <v>0.50505049999999996</v>
       </c>
-      <c r="U75" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="e">
+      <c r="Y75" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>0.43699929999999998</v>
       </c>
@@ -6149,15 +6345,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U76" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="e">
+      <c r="Y76" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>0.55594160000000004</v>
       </c>
@@ -6222,15 +6415,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U77" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="e">
+      <c r="U77" s="5">
+        <v>0</v>
+      </c>
+      <c r="V77" s="5">
+        <v>0</v>
+      </c>
+      <c r="W77" s="5">
+        <v>0</v>
+      </c>
+      <c r="X77" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y77">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>0.49046319999999999</v>
       </c>
@@ -6295,15 +6497,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U78" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="e">
+      <c r="U78" s="5">
+        <v>0</v>
+      </c>
+      <c r="V78" s="5">
+        <v>0</v>
+      </c>
+      <c r="W78" s="5">
+        <v>0</v>
+      </c>
+      <c r="X78" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y78">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>0.46419100000000002</v>
       </c>
@@ -6368,15 +6579,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U79" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z79" t="e">
+      <c r="U79" s="5">
+        <v>0</v>
+      </c>
+      <c r="V79" s="5">
+        <v>0</v>
+      </c>
+      <c r="W79" s="5">
+        <v>0</v>
+      </c>
+      <c r="X79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y79">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>0.44286979999999998</v>
       </c>
@@ -6441,15 +6661,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U80" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z80" t="e">
+      <c r="Y80" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25">
       <c r="A81" s="1">
         <v>0.55970149999999996</v>
       </c>
@@ -6514,15 +6731,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U81" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z81" t="e">
+      <c r="Y81" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25">
       <c r="A82" s="1">
         <v>0.60422960000000003</v>
       </c>
@@ -6587,15 +6801,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U82" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z82" t="e">
+      <c r="U82" s="5">
+        <v>0</v>
+      </c>
+      <c r="V82" s="5">
+        <v>0</v>
+      </c>
+      <c r="W82" s="5">
+        <v>0</v>
+      </c>
+      <c r="X82" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y82">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1">
         <v>0.36023050000000001</v>
       </c>
@@ -6660,15 +6883,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U83" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z83" t="e">
+      <c r="U83" s="5">
+        <v>0</v>
+      </c>
+      <c r="V83" s="5">
+        <v>0</v>
+      </c>
+      <c r="W83" s="5">
+        <v>0</v>
+      </c>
+      <c r="X83" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y83">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1">
         <v>0.41736230000000002</v>
       </c>
@@ -6733,15 +6965,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U84" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z84" t="e">
+      <c r="Y84" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25">
       <c r="A85" s="1">
         <v>0.37509379999999998</v>
       </c>
@@ -6806,15 +7035,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U85" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z85" t="e">
+      <c r="U85" s="5">
+        <v>0</v>
+      </c>
+      <c r="V85" s="5">
+        <v>0</v>
+      </c>
+      <c r="W85" s="5">
+        <v>0</v>
+      </c>
+      <c r="X85" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y85">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="1">
         <v>0.2735978</v>
       </c>
@@ -6879,15 +7117,24 @@
         <f t="shared" si="9"/>
         <v>0.54945049999999995</v>
       </c>
-      <c r="U86" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z86" t="e">
+      <c r="U86" s="5">
+        <v>0</v>
+      </c>
+      <c r="V86" s="5">
+        <v>0</v>
+      </c>
+      <c r="W86" s="5">
+        <v>0</v>
+      </c>
+      <c r="X86" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y86">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1">
         <v>0.247117</v>
       </c>
@@ -6952,15 +7199,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U87" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z87" t="e">
+      <c r="Y87" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25">
       <c r="A88" s="1">
         <v>0.34891840000000002</v>
       </c>
@@ -7025,15 +7269,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U88" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z88" t="e">
+      <c r="U88" s="5">
+        <v>0</v>
+      </c>
+      <c r="V88" s="5">
+        <v>0</v>
+      </c>
+      <c r="W88" s="5">
+        <v>0</v>
+      </c>
+      <c r="X88" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y88">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="1">
         <v>0.29048659999999998</v>
       </c>
@@ -7098,15 +7351,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U89" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z89" t="e">
+      <c r="U89" s="5">
+        <v>0</v>
+      </c>
+      <c r="V89" s="5">
+        <v>0</v>
+      </c>
+      <c r="W89" s="5">
+        <v>0</v>
+      </c>
+      <c r="X89" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y89">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="1">
         <v>0.35561880000000001</v>
       </c>
@@ -7171,15 +7433,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U90" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z90" t="e">
+      <c r="U90" s="5">
+        <v>0</v>
+      </c>
+      <c r="V90" s="5">
+        <v>0</v>
+      </c>
+      <c r="W90" s="5">
+        <v>0</v>
+      </c>
+      <c r="X90" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y90">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1">
         <v>0.40453070000000002</v>
       </c>
@@ -7244,15 +7515,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U91" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z91" t="e">
+      <c r="U91" s="5">
+        <v>0</v>
+      </c>
+      <c r="V91" s="5">
+        <v>0</v>
+      </c>
+      <c r="W91" s="5">
+        <v>0</v>
+      </c>
+      <c r="X91" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y91">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1">
         <v>0.47036689999999998</v>
       </c>
@@ -7317,15 +7597,12 @@
         <f t="shared" si="9"/>
         <v>1.456588</v>
       </c>
-      <c r="U92" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z92" t="e">
+      <c r="Y92" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25">
       <c r="A93" s="1">
         <v>0.47586679999999998</v>
       </c>
@@ -7390,15 +7667,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U93" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z93" t="e">
+      <c r="U93" s="5">
+        <v>0</v>
+      </c>
+      <c r="V93" s="5">
+        <v>0</v>
+      </c>
+      <c r="W93" s="5">
+        <v>0</v>
+      </c>
+      <c r="X93" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y93">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1">
         <v>0.42164439999999997</v>
       </c>
@@ -7463,15 +7749,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U94" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z94" t="e">
+      <c r="U94" s="5">
+        <v>0</v>
+      </c>
+      <c r="V94" s="5">
+        <v>0</v>
+      </c>
+      <c r="W94" s="5">
+        <v>0</v>
+      </c>
+      <c r="X94" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y94">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1">
         <v>0.45214769999999999</v>
       </c>
@@ -7536,15 +7831,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U95" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z95" t="e">
+      <c r="U95" s="5">
+        <v>0</v>
+      </c>
+      <c r="V95" s="5">
+        <v>0</v>
+      </c>
+      <c r="W95" s="5">
+        <v>0</v>
+      </c>
+      <c r="X95" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y95">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1">
         <v>0.44742729999999997</v>
       </c>
@@ -7609,15 +7913,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U96" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z96" t="e">
+      <c r="U96" s="5">
+        <v>0</v>
+      </c>
+      <c r="V96" s="5">
+        <v>0</v>
+      </c>
+      <c r="W96" s="5">
+        <v>0</v>
+      </c>
+      <c r="X96" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y96">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="1">
         <v>0.39577839999999997</v>
       </c>
@@ -7682,15 +7995,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U97" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z97" t="e">
+      <c r="U97" s="5">
+        <v>0</v>
+      </c>
+      <c r="V97" s="5">
+        <v>0</v>
+      </c>
+      <c r="W97" s="5">
+        <v>0</v>
+      </c>
+      <c r="X97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y97">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>0.55452869999999999</v>
       </c>
@@ -7755,15 +8077,12 @@
         <f t="shared" si="9"/>
         <v>0.68493150000000003</v>
       </c>
-      <c r="U98" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z98" t="e">
+      <c r="Y98" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>0.456621</v>
       </c>
@@ -7828,15 +8147,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U99" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z99" t="e">
+      <c r="Y99" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>0.26881719999999998</v>
       </c>
@@ -7901,15 +8217,12 @@
         <f t="shared" si="9"/>
         <v>0.4587156</v>
       </c>
-      <c r="U100" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z100" t="e">
+      <c r="Y100" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>0.3125</v>
       </c>
@@ -7974,15 +8287,12 @@
         <f t="shared" si="9"/>
         <v>0.49019610000000002</v>
       </c>
-      <c r="U101" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z101" t="e">
+      <c r="Y101" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25">
       <c r="A102" s="1">
         <v>0.37678980000000001</v>
       </c>
@@ -8047,15 +8357,12 @@
         <f t="shared" si="9"/>
         <v>0.46728969999999997</v>
       </c>
-      <c r="U102" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z102" t="e">
+      <c r="Y102" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>0.43591980000000002</v>
       </c>
@@ -8120,15 +8427,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U103" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z103" t="e">
+      <c r="Y103" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>0.54844610000000005</v>
       </c>
@@ -8193,15 +8497,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U104" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z104" t="e">
+      <c r="Y104" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>0.24752479999999999</v>
       </c>
@@ -8266,15 +8567,24 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U105" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z105" t="e">
+      <c r="U105" s="5">
+        <v>0</v>
+      </c>
+      <c r="V105" s="5">
+        <v>0</v>
+      </c>
+      <c r="W105" s="5">
+        <v>0</v>
+      </c>
+      <c r="X105" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y105">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>0.3947368</v>
       </c>
@@ -8339,15 +8649,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U106" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z106" t="e">
+      <c r="Y106" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>0.41095890000000002</v>
       </c>
@@ -8412,10 +8719,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U107" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z107" t="e">
+      <c r="Y107" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
